--- a/even_more_private_dataD.xlsx
+++ b/even_more_private_dataD.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D21" t="n">
         <v>2100</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D22" t="n">
         <v>2100</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D27" t="n">
         <v>2400</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D28" t="n">
         <v>2100</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D31" t="n">
         <v>2100</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D63" t="n">
         <v>2400</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D87" t="n">
         <v>2100</v>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D94" t="n">
         <v>2400</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D99" t="n">
         <v>2300</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D102" t="n">
         <v>2100</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PhD programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D166" t="n">
         <v>2100</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Masters programmes</t>
+          <t>Graduate and Post-graduate</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">

--- a/even_more_private_dataD.xlsx
+++ b/even_more_private_dataD.xlsx
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D2" t="n">
         <v>2300</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D4" t="n">
         <v>2400</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D7" t="n">
         <v>2400</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D8" t="n">
         <v>2400</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D11" t="n">
         <v>2300</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D12" t="n">
         <v>2400</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D13" t="n">
         <v>2200</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D14" t="n">
         <v>2200</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D15" t="n">
         <v>2100</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D17" t="n">
         <v>2400</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D18" t="n">
         <v>2400</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D19" t="n">
         <v>2200</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D20" t="n">
         <v>2200</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="D23" t="n">
         <v>2400</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D24" t="n">
         <v>2400</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D26" t="n">
         <v>2300</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D29" t="n">
         <v>2400</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D33" t="n">
         <v>2200</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D34" t="n">
         <v>2200</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D36" t="n">
         <v>2300</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D40" t="n">
         <v>2200</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D44" t="n">
         <v>2100</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D47" t="n">
         <v>2100</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D48" t="n">
         <v>2200</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D49" t="n">
         <v>2300</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D50" t="n">
         <v>2400</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D51" t="n">
         <v>2400</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D52" t="n">
         <v>2300</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D53" t="n">
         <v>2400</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D54" t="n">
         <v>2400</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="D55" t="n">
         <v>2300</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D56" t="n">
         <v>2300</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D57" t="n">
         <v>2400</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D58" t="n">
         <v>2400</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D59" t="n">
         <v>2400</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D60" t="n">
         <v>2400</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D61" t="n">
         <v>2400</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D62" t="n">
         <v>2200</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D65" t="n">
         <v>2400</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D66" t="n">
         <v>2100</v>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D67" t="n">
         <v>2200</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D68" t="n">
         <v>2100</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D69" t="n">
         <v>2100</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D70" t="n">
         <v>2200</v>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D71" t="n">
         <v>2200</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D73" t="n">
         <v>2400</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D74" t="n">
         <v>2200</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D75" t="n">
         <v>2300</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D76" t="n">
         <v>2100</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D77" t="n">
         <v>2200</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D79" t="n">
         <v>2200</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D80" t="n">
         <v>2400</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D81" t="n">
         <v>2300</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D82" t="n">
         <v>2200</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D84" t="n">
         <v>2200</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D88" t="n">
         <v>2400</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D89" t="n">
         <v>2200</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D90" t="n">
         <v>2300</v>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D91" t="n">
         <v>2100</v>
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D92" t="n">
         <v>2200</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D95" t="n">
         <v>2400</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D97" t="n">
         <v>2100</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D100" t="n">
         <v>2300</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D101" t="n">
         <v>2400</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="D103" t="n">
         <v>2300</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D104" t="n">
         <v>2400</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D105" t="n">
         <v>2200</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D106" t="n">
         <v>2100</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D107" t="n">
         <v>2300</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D108" t="n">
         <v>2400</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D109" t="n">
         <v>2300</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D112" t="n">
         <v>2200</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D113" t="n">
         <v>2300</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D115" t="n">
         <v>2400</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D116" t="n">
         <v>2400</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D117" t="n">
         <v>2300</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D118" t="n">
         <v>2400</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D119" t="n">
         <v>2100</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D120" t="n">
         <v>2200</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D121" t="n">
         <v>2200</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D122" t="n">
         <v>2300</v>
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D123" t="n">
         <v>2200</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D126" t="n">
         <v>2200</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D127" t="n">
         <v>2400</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D128" t="n">
         <v>2200</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D129" t="n">
         <v>2400</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D130" t="n">
         <v>2200</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="D131" t="n">
         <v>2100</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D132" t="n">
         <v>2400</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D133" t="n">
         <v>2300</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D134" t="n">
         <v>2200</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D135" t="n">
         <v>2200</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D137" t="n">
         <v>2300</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D139" t="n">
         <v>2300</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D140" t="n">
         <v>2300</v>
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D141" t="n">
         <v>2400</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D143" t="n">
         <v>2400</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D144" t="n">
         <v>2400</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D147" t="n">
         <v>2300</v>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D148" t="n">
         <v>2200</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D149" t="n">
         <v>2300</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D150" t="n">
         <v>2200</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D156" t="n">
         <v>2400</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D157" t="n">
         <v>2300</v>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D158" t="n">
         <v>2300</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D159" t="n">
         <v>2300</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D160" t="n">
         <v>2300</v>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D161" t="n">
         <v>2300</v>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D162" t="n">
         <v>2100</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D164" t="n">
         <v>2200</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D165" t="n">
         <v>2300</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="D168" t="n">
         <v>2300</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D169" t="n">
         <v>2300</v>
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D171" t="n">
         <v>2300</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D172" t="n">
         <v>2300</v>
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D175" t="n">
         <v>2400</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D176" t="n">
         <v>2400</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D177" t="n">
         <v>2200</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D178" t="n">
         <v>2200</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D180" t="n">
         <v>2400</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D181" t="n">
         <v>2300</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D182" t="n">
         <v>2400</v>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="D184" t="n">
         <v>2300</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D185" t="n">
         <v>2300</v>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D186" t="n">
         <v>2300</v>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D187" t="n">
         <v>2400</v>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D189" t="n">
         <v>2400</v>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D192" t="n">
         <v>2100</v>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D194" t="n">
         <v>2200</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="D196" t="n">
         <v>2200</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D197" t="n">
         <v>2300</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D198" t="n">
         <v>2200</v>
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D199" t="n">
         <v>2300</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D200" t="n">
         <v>2400</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D201" t="n">
         <v>2200</v>

--- a/even_more_private_dataD.xlsx
+++ b/even_more_private_dataD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D4" t="n">
         <v>2400</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D5" t="n">
         <v>2200</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D7" t="n">
         <v>2400</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D10" t="n">
         <v>2300</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D12" t="n">
         <v>2400</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D14" t="n">
         <v>2200</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D15" t="n">
         <v>2100</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D19" t="n">
         <v>2200</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D20" t="n">
         <v>2200</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D23" t="n">
         <v>2400</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D24" t="n">
         <v>2400</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D25" t="n">
         <v>2300</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D29" t="n">
         <v>2400</v>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D37" t="n">
         <v>2200</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D38" t="n">
         <v>2200</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D45" t="n">
         <v>2400</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D50" t="n">
         <v>2400</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D51" t="n">
         <v>2400</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D53" t="n">
         <v>2400</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D55" t="n">
         <v>2300</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D56" t="n">
         <v>2300</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D57" t="n">
         <v>2400</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D58" t="n">
         <v>2400</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D59" t="n">
         <v>2400</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D61" t="n">
         <v>2400</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D62" t="n">
         <v>2200</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D64" t="n">
         <v>2300</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D66" t="n">
         <v>2100</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D68" t="n">
         <v>2100</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D69" t="n">
         <v>2100</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D70" t="n">
         <v>2200</v>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D71" t="n">
         <v>2200</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D72" t="n">
         <v>2300</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D73" t="n">
         <v>2400</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D74" t="n">
         <v>2200</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D80" t="n">
         <v>2400</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D81" t="n">
         <v>2300</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D85" t="n">
         <v>2100</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D86" t="n">
         <v>2200</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D88" t="n">
         <v>2400</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D89" t="n">
         <v>2200</v>
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D92" t="n">
         <v>2200</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D97" t="n">
         <v>2100</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D103" t="n">
         <v>2300</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D104" t="n">
         <v>2400</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D105" t="n">
         <v>2200</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D109" t="n">
         <v>2300</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D110" t="n">
         <v>2100</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D112" t="n">
         <v>2200</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D113" t="n">
         <v>2300</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D115" t="n">
         <v>2400</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D116" t="n">
         <v>2400</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D117" t="n">
         <v>2300</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D124" t="n">
         <v>2200</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D125" t="n">
         <v>2400</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D127" t="n">
         <v>2400</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D131" t="n">
         <v>2100</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D132" t="n">
         <v>2400</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D133" t="n">
         <v>2300</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D134" t="n">
         <v>2200</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D136" t="n">
         <v>2400</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D138" t="n">
         <v>2400</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D139" t="n">
         <v>2300</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D140" t="n">
         <v>2300</v>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D142" t="n">
         <v>2200</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D147" t="n">
         <v>2300</v>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D148" t="n">
         <v>2200</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D149" t="n">
         <v>2300</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D153" t="n">
         <v>2400</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D156" t="n">
         <v>2400</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D157" t="n">
         <v>2300</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D164" t="n">
         <v>2200</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D169" t="n">
         <v>2300</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D172" t="n">
         <v>2300</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D173" t="n">
         <v>2400</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D176" t="n">
         <v>2400</v>
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D179" t="n">
         <v>2200</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D182" t="n">
         <v>2400</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D183" t="n">
         <v>2400</v>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D184" t="n">
         <v>2300</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D185" t="n">
         <v>2300</v>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="D186" t="n">
         <v>2300</v>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D187" t="n">
         <v>2400</v>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D188" t="n">
         <v>2400</v>
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D190" t="n">
         <v>2400</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D191" t="n">
         <v>2300</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D195" t="n">
         <v>2400</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D197" t="n">
         <v>2300</v>
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D199" t="n">
         <v>2300</v>
